--- a/meta/telegrams/CommonResponse.xlsx
+++ b/meta/telegrams/CommonResponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9E6116-BEBA-F848-80FD-59A7490404E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7F330C-D6A5-9749-A109-BBE8B0ED0C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20360" yWindow="8380" windowWidth="29040" windowHeight="15840" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,19 +116,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>errors</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>array</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorItem</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エラー情報</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -403,15 +391,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>new Array&lt;ErrorItem&gt;()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>デフォルト(Kt)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;ErrorItem&gt;()</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -512,6 +492,26 @@
   </si>
   <si>
     <t>通信に関するメタ情報</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MessageItem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new Array&lt;MessageItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;MessageItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ・エラー情報</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1601,6 +1601,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,41 +1651,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2064,8 +2064,8 @@
   </sheetPr>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2085,25 +2085,25 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2143,11 +2143,11 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="9"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
@@ -2185,46 +2185,46 @@
     </row>
     <row r="9" spans="1:20" s="31" customFormat="1">
       <c r="A9" s="53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="86" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="87"/>
       <c r="E9" s="56"/>
       <c r="F9" s="88"/>
       <c r="G9" s="31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="31" customFormat="1">
-      <c r="A10" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="107"/>
+      <c r="A10" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="120"/>
       <c r="C10" s="86" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
       <c r="F10" s="88"/>
       <c r="G10" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="31" customFormat="1">
       <c r="A11" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="86"/>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="14" spans="1:20" s="31" customFormat="1">
       <c r="A14" s="50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="52"/>
@@ -2299,14 +2299,14 @@
     </row>
     <row r="15" spans="1:20" s="31" customFormat="1">
       <c r="A15" s="50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="16" spans="1:20" s="31" customFormat="1">
       <c r="A16" s="50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
@@ -2345,11 +2345,11 @@
     </row>
     <row r="17" spans="1:20" s="31" customFormat="1">
       <c r="A17" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="18" spans="1:20" s="31" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
@@ -2392,11 +2392,11 @@
     </row>
     <row r="19" spans="1:20" s="31" customFormat="1">
       <c r="A19" s="50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="20" spans="1:20" s="31" customFormat="1">
       <c r="A20" s="50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="52"/>
@@ -2440,14 +2440,14 @@
     </row>
     <row r="21" spans="1:20" s="31" customFormat="1">
       <c r="A21" s="69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="23" spans="1:20" s="31" customFormat="1">
       <c r="A23" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="26" spans="1:20" s="31" customFormat="1">
       <c r="A26" s="53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="55"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="28" spans="1:20" s="31" customFormat="1">
       <c r="A28" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="29" spans="1:20" s="31" customFormat="1">
       <c r="A29" s="57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2734,7 +2734,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="118"/>
+      <c r="I34" s="103"/>
       <c r="J34" s="51"/>
       <c r="K34" s="71"/>
       <c r="L34" s="51"/>
@@ -2750,91 +2750,91 @@
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="106"/>
+      <c r="O35" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="109"/>
-      <c r="O35" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R35" s="110" t="s">
+      <c r="R35" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="110"/>
+      <c r="S35" s="107"/>
       <c r="T35" s="13"/>
       <c r="U35" s="14"/>
       <c r="V35" s="7"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="105"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="118"/>
       <c r="M36" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="39" t="s">
+      <c r="Q36" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
       <c r="T36" s="15"/>
       <c r="U36" s="27"/>
       <c r="V36" s="12"/>
@@ -2844,29 +2844,29 @@
         <v>1</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G37" s="92" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H37" s="92"/>
-      <c r="I37" s="120" t="s">
-        <v>83</v>
+      <c r="I37" s="104" t="s">
+        <v>78</v>
       </c>
       <c r="J37" s="92"/>
       <c r="K37" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L37" s="101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M37" s="40"/>
       <c r="N37" s="41"/>
@@ -2874,7 +2874,7 @@
       <c r="P37" s="41"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
@@ -2887,27 +2887,27 @@
         <v>2</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H38" s="93"/>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
       <c r="K38" s="85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L38" s="101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -2915,7 +2915,7 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
@@ -2927,29 +2927,29 @@
         <v>3</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="D39" s="18" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
       <c r="I39" s="93"/>
       <c r="J39" s="93" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="K39" s="85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L39" s="101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
@@ -2957,7 +2957,7 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
@@ -3254,6 +3254,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="R35:S36"/>
     <mergeCell ref="A35:A36"/>
@@ -3268,8 +3270,6 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="M35:N35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="10">
@@ -3344,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19">
       <c r="A1" s="44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -3359,43 +3359,43 @@
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
       <c r="N1" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R1" s="45"/>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="72" t="s">
+      <c r="N3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="72" t="s">
-        <v>41</v>
-      </c>
       <c r="P3" s="72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="96"/>
       <c r="D4" s="97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4" s="47"/>
       <c r="J4" s="47"/>
@@ -3405,24 +3405,24 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="98"/>
       <c r="F5" s="49"/>
       <c r="H5" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N5" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18">
